--- a/KO DCF.xlsx
+++ b/KO DCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9104B107-6A77-4A75-8457-82E44F8E2F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1859C2C8-B99C-4FE5-AA34-70F839F2E61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F256251-7061-49B2-9B0B-301EC1E08ECF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Raw CF" sheetId="4" r:id="rId3"/>
     <sheet name="WACC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,9 +438,6 @@
     <t>Other income</t>
   </si>
   <si>
-    <t>Disney DCF</t>
-  </si>
-  <si>
     <t>Terminal Growth Rate</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>Update: 26/09/2023</t>
+  </si>
+  <si>
+    <t>Coca-Cola DCF</t>
   </si>
 </sst>
 </file>
@@ -1143,16 +1143,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,6 +1164,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B584064-8197-4774-A1FA-A1F3B33925A7}">
   <dimension ref="A1:CH65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
     <row r="2" spans="1:18" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="2"/>
@@ -2266,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="83">
-        <f t="shared" ref="C20:R20" si="7">C19/C11</f>
+        <f t="shared" ref="C20:H20" si="7">C19/C11</f>
         <v>0.35441290180050811</v>
       </c>
       <c r="D20" s="83">
@@ -2345,58 +2345,58 @@
       <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="97">
         <f>'Raw IS'!G7</f>
         <v>1902</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="97">
         <f>'Raw IS'!H7</f>
         <v>1079</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="97">
         <f>'Raw IS'!I7</f>
         <v>458</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="97">
         <f>'Raw IS'!B7</f>
         <v>853</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="97">
         <f>'Raw IS'!C7</f>
         <v>846</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="97">
         <f>'Raw IS'!D7</f>
         <v>1215</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="99">
         <v>1162.4292889091676</v>
       </c>
-      <c r="J22" s="103">
+      <c r="J22" s="99">
         <v>1179.9095775815654</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="99">
         <v>1243.87824335048</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="99">
         <v>1274.7588227356948</v>
       </c>
-      <c r="M22" s="103">
+      <c r="M22" s="99">
         <v>1331.324138924203</v>
       </c>
-      <c r="N22" s="103">
+      <c r="N22" s="99">
         <v>1333.675205779768</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="99">
         <v>1372.6199195432939</v>
       </c>
-      <c r="P22" s="103">
+      <c r="P22" s="99">
         <v>1420.4643209807443</v>
       </c>
-      <c r="Q22" s="103">
+      <c r="Q22" s="99">
         <v>1487.4807011693053</v>
       </c>
-      <c r="R22" s="103">
+      <c r="R22" s="99">
         <v>1573.2720675011401</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>5.2524025185021542E-2</v>
       </c>
       <c r="D23" s="83">
-        <f t="shared" ref="D23:I23" si="8">D22/D11</f>
+        <f t="shared" ref="D23:H23" si="8">D22/D11</f>
         <v>3.1457725947521865E-2</v>
       </c>
       <c r="E23" s="83">
@@ -2645,22 +2645,22 @@
       <c r="B28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="98">
         <v>-865</v>
       </c>
-      <c r="D28" s="102">
+      <c r="D28" s="98">
         <v>-927</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="98">
         <v>700</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="98">
         <v>752</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="98">
         <v>2117</v>
       </c>
-      <c r="H28" s="102">
+      <c r="H28" s="98">
         <v>777</v>
       </c>
       <c r="I28" s="20">
@@ -4370,67 +4370,67 @@
         <v>25</v>
       </c>
       <c r="C53" s="24">
-        <f>C49+C40+C43-C46</f>
+        <f t="shared" ref="C53:R53" si="51">C49+C40+C43-C46</f>
         <v>-1784</v>
       </c>
       <c r="D53" s="24">
-        <f>D49+D40+D43-D46</f>
+        <f t="shared" si="51"/>
         <v>8181</v>
       </c>
       <c r="E53" s="24">
-        <f>E49+E40+E43-E46</f>
+        <f t="shared" si="51"/>
         <v>7230</v>
       </c>
       <c r="F53" s="24">
-        <f>F49+F40+F43-F46</f>
+        <f t="shared" si="51"/>
         <v>6685</v>
       </c>
       <c r="G53" s="24">
-        <f>G49+G40+G43-G46</f>
+        <f t="shared" si="51"/>
         <v>6447</v>
       </c>
       <c r="H53" s="24">
-        <f>H49+H40+H43-H46</f>
+        <f t="shared" si="51"/>
         <v>9175</v>
       </c>
       <c r="I53" s="55">
-        <f>I49+I40+I43-I46</f>
+        <f t="shared" si="51"/>
         <v>9724.8500000000022</v>
       </c>
       <c r="J53" s="24">
-        <f>J49+J40+J43-J46</f>
+        <f t="shared" si="51"/>
         <v>10830.35</v>
       </c>
       <c r="K53" s="24">
-        <f>K49+K40+K43-K46</f>
+        <f t="shared" si="51"/>
         <v>11512.550000000001</v>
       </c>
       <c r="L53" s="24">
-        <f>L49+L40+L43-L46</f>
+        <f t="shared" si="51"/>
         <v>12315.800000000001</v>
       </c>
       <c r="M53" s="24">
-        <f>M49+M40+M43-M46</f>
+        <f t="shared" si="51"/>
         <v>13501.800000000001</v>
       </c>
       <c r="N53" s="24">
-        <f>N49+N40+N43-N46</f>
+        <f t="shared" si="51"/>
         <v>14135.75</v>
       </c>
       <c r="O53" s="24">
-        <f>O49+O40+O43-O46</f>
+        <f t="shared" si="51"/>
         <v>14958.400000000001</v>
       </c>
       <c r="P53" s="24">
-        <f>P49+P40+P43-P46</f>
+        <f t="shared" si="51"/>
         <v>15807.600000000002</v>
       </c>
       <c r="Q53" s="24">
-        <f>Q49+Q40+Q43-Q46</f>
+        <f t="shared" si="51"/>
         <v>16474.7</v>
       </c>
       <c r="R53" s="24">
-        <f>R49+R40+R43-R46</f>
+        <f t="shared" si="51"/>
         <v>17197.149999999998</v>
       </c>
     </row>
@@ -4446,43 +4446,43 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="79">
-        <f>I53/((1+$E$5)^I9)</f>
+        <f t="shared" ref="I54:R54" si="52">I53/((1+$E$5)^I9)</f>
         <v>9076.3877501971419</v>
       </c>
       <c r="J54" s="80">
-        <f>J53/((1+$E$5)^J9)</f>
+        <f t="shared" si="52"/>
         <v>9434.149435802361</v>
       </c>
       <c r="K54" s="80">
-        <f>K53/((1+$E$5)^K9)</f>
+        <f t="shared" si="52"/>
         <v>9359.6997762623669</v>
       </c>
       <c r="L54" s="80">
-        <f>L53/((1+$E$5)^L9)</f>
+        <f t="shared" si="52"/>
         <v>9345.0826425650394</v>
       </c>
       <c r="M54" s="80">
-        <f>M53/((1+$E$5)^M9)</f>
+        <f t="shared" si="52"/>
         <v>9561.8586415931313</v>
       </c>
       <c r="N54" s="80">
-        <f>N53/((1+$E$5)^N9)</f>
+        <f t="shared" si="52"/>
         <v>9343.285806106469</v>
       </c>
       <c r="O54" s="80">
-        <f>O53/((1+$E$5)^O9)</f>
+        <f t="shared" si="52"/>
         <v>9227.7548913188457</v>
       </c>
       <c r="P54" s="80">
-        <f>P53/((1+$E$5)^P9)</f>
+        <f t="shared" si="52"/>
         <v>9101.3742991731233</v>
       </c>
       <c r="Q54" s="80">
-        <f>Q53/((1+$E$5)^Q9)</f>
+        <f t="shared" si="52"/>
         <v>8852.9636719841328</v>
       </c>
       <c r="R54" s="80">
-        <f>R53/((1+$E$5)^R9)</f>
+        <f t="shared" si="52"/>
         <v>8624.9736351856827</v>
       </c>
     </row>
@@ -4553,14 +4553,14 @@
       <c r="I57" s="12"/>
       <c r="J57" s="1"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
+      <c r="L57" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:86" x14ac:dyDescent="0.25">
@@ -4851,587 +4851,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="B3" s="93">
+        <v>33014</v>
+      </c>
+      <c r="C3" s="93">
+        <v>38655</v>
+      </c>
+      <c r="D3" s="93">
+        <v>43004</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="G3" s="93">
+        <v>36212</v>
+      </c>
+      <c r="H3" s="93">
+        <v>34300</v>
+      </c>
+      <c r="I3" s="93">
+        <v>37266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="97">
-        <v>33014</v>
-      </c>
-      <c r="C3" s="97">
-        <v>38655</v>
-      </c>
-      <c r="D3" s="97">
-        <v>43004</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="96" t="s">
+      <c r="B4" s="94">
+        <v>13433</v>
+      </c>
+      <c r="C4" s="94">
+        <v>15357</v>
+      </c>
+      <c r="D4" s="94">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="97">
-        <v>36212</v>
-      </c>
-      <c r="H3" s="97">
-        <v>34300</v>
-      </c>
-      <c r="I3" s="97">
-        <v>37266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="G4" s="94">
+        <v>13721</v>
+      </c>
+      <c r="H4" s="94">
+        <v>13067</v>
+      </c>
+      <c r="I4" s="94">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="94">
+        <v>19581</v>
+      </c>
+      <c r="C5" s="94">
+        <v>23298</v>
+      </c>
+      <c r="D5" s="94">
+        <v>25004</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="94">
+        <v>22491</v>
+      </c>
+      <c r="H5" s="94">
+        <v>21233</v>
+      </c>
+      <c r="I5" s="94">
+        <v>22647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="98">
-        <v>13433</v>
-      </c>
-      <c r="C4" s="98">
-        <v>15357</v>
-      </c>
-      <c r="D4" s="98">
-        <v>18000</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="98">
-        <v>13721</v>
-      </c>
-      <c r="H4" s="98">
-        <v>13067</v>
-      </c>
-      <c r="I4" s="98">
-        <v>14619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="98">
-        <v>19581</v>
-      </c>
-      <c r="C5" s="98">
-        <v>23298</v>
-      </c>
-      <c r="D5" s="98">
-        <v>25004</v>
-      </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="96" t="s">
+      <c r="B6" s="94">
+        <v>9731</v>
+      </c>
+      <c r="C6" s="94">
+        <v>12144</v>
+      </c>
+      <c r="D6" s="94">
+        <v>12880</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="98">
-        <v>22491</v>
-      </c>
-      <c r="H5" s="98">
-        <v>21233</v>
-      </c>
-      <c r="I5" s="98">
-        <v>22647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="G6" s="94">
+        <v>12834</v>
+      </c>
+      <c r="H6" s="94">
+        <v>11002</v>
+      </c>
+      <c r="I6" s="94">
+        <v>12103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="98">
-        <v>9731</v>
-      </c>
-      <c r="C6" s="98">
-        <v>12144</v>
-      </c>
-      <c r="D6" s="98">
-        <v>12880</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="96" t="s">
+      <c r="B7" s="94">
+        <v>853</v>
+      </c>
+      <c r="C7" s="94">
+        <v>846</v>
+      </c>
+      <c r="D7" s="94">
+        <v>1215</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="98">
-        <v>12834</v>
-      </c>
-      <c r="H6" s="98">
-        <v>11002</v>
-      </c>
-      <c r="I6" s="98">
-        <v>12103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="G7" s="94">
+        <v>1902</v>
+      </c>
+      <c r="H7" s="94">
+        <v>1079</v>
+      </c>
+      <c r="I7" s="94">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B8" s="94">
+        <v>8997</v>
+      </c>
+      <c r="C8" s="94">
+        <v>10308</v>
+      </c>
+      <c r="D8" s="94">
+        <v>10909</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="94">
+        <v>7755</v>
+      </c>
+      <c r="H8" s="94">
+        <v>9152</v>
+      </c>
+      <c r="I8" s="94">
+        <v>10086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="94">
+        <v>370</v>
+      </c>
+      <c r="C9" s="94">
+        <v>276</v>
+      </c>
+      <c r="D9" s="94">
+        <v>449</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="94">
+        <v>679</v>
+      </c>
+      <c r="H9" s="94">
+        <v>689</v>
+      </c>
+      <c r="I9" s="94">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="94">
+        <v>1437</v>
+      </c>
+      <c r="C10" s="94">
+        <v>1597</v>
+      </c>
+      <c r="D10" s="94">
+        <v>882</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="94">
         <v>853</v>
       </c>
-      <c r="C7" s="98">
-        <v>846</v>
-      </c>
-      <c r="D7" s="98">
-        <v>1215</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="98">
-        <v>1902</v>
-      </c>
-      <c r="H7" s="98">
-        <v>1079</v>
-      </c>
-      <c r="I7" s="98">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="98">
-        <v>8997</v>
-      </c>
-      <c r="C8" s="98">
-        <v>10308</v>
-      </c>
-      <c r="D8" s="98">
-        <v>10909</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="96" t="s">
+      <c r="H10" s="94">
+        <v>950</v>
+      </c>
+      <c r="I10" s="94">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="94">
+        <v>978</v>
+      </c>
+      <c r="C11" s="94">
+        <v>1438</v>
+      </c>
+      <c r="D11" s="94">
+        <v>1472</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="98">
-        <v>7755</v>
-      </c>
-      <c r="H8" s="98">
-        <v>9152</v>
-      </c>
-      <c r="I8" s="98">
-        <v>10086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="98">
-        <v>370</v>
-      </c>
-      <c r="C9" s="98">
-        <v>276</v>
-      </c>
-      <c r="D9" s="98">
-        <v>449</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="98">
-        <v>679</v>
-      </c>
-      <c r="H9" s="98">
-        <v>689</v>
-      </c>
-      <c r="I9" s="98">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="98">
-        <v>1437</v>
-      </c>
-      <c r="C10" s="98">
-        <v>1597</v>
-      </c>
-      <c r="D10" s="98">
-        <v>882</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="98">
-        <v>853</v>
-      </c>
-      <c r="H10" s="98">
-        <v>950</v>
-      </c>
-      <c r="I10" s="98">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="G11" s="94">
+        <v>1072</v>
+      </c>
+      <c r="H11" s="94">
+        <v>1008</v>
+      </c>
+      <c r="I11" s="94">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="98">
-        <v>978</v>
-      </c>
-      <c r="C11" s="98">
-        <v>1438</v>
-      </c>
-      <c r="D11" s="98">
-        <v>1472</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="96" t="s">
+      <c r="B12" s="94">
+        <v>841</v>
+      </c>
+      <c r="C12" s="94">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="94">
+        <v>-262</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="98">
-        <v>1072</v>
-      </c>
-      <c r="H11" s="98">
-        <v>1008</v>
-      </c>
-      <c r="I11" s="98">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="G12" s="94">
+        <v>-1763</v>
+      </c>
+      <c r="H12" s="94">
+        <v>-1674</v>
+      </c>
+      <c r="I12" s="94">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="98">
-        <v>841</v>
-      </c>
-      <c r="C12" s="98">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="98">
-        <v>-262</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="96" t="s">
+      <c r="B13" s="94">
+        <v>9749</v>
+      </c>
+      <c r="C13" s="94">
+        <v>12425</v>
+      </c>
+      <c r="D13" s="94">
+        <v>11686</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="G12" s="98">
-        <v>-1763</v>
-      </c>
-      <c r="H12" s="98">
-        <v>-1674</v>
-      </c>
-      <c r="I12" s="98">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="G13" s="94">
+        <v>6890</v>
+      </c>
+      <c r="H13" s="94">
+        <v>8225</v>
+      </c>
+      <c r="I13" s="94">
+        <v>10786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="94">
+        <v>1981</v>
+      </c>
+      <c r="C14" s="94">
+        <v>2621</v>
+      </c>
+      <c r="D14" s="94">
+        <v>2115</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="94">
+        <v>5607</v>
+      </c>
+      <c r="H14" s="94">
+        <v>1749</v>
+      </c>
+      <c r="I14" s="94">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="98">
-        <v>9749</v>
-      </c>
-      <c r="C13" s="98">
-        <v>12425</v>
-      </c>
-      <c r="D13" s="98">
-        <v>11686</v>
-      </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="96" t="s">
+      <c r="B15" s="94">
+        <v>7768</v>
+      </c>
+      <c r="C15" s="94">
+        <v>9804</v>
+      </c>
+      <c r="D15" s="94">
+        <v>9571</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="98">
-        <v>6890</v>
-      </c>
-      <c r="H13" s="98">
-        <v>8225</v>
-      </c>
-      <c r="I13" s="98">
-        <v>10786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="98">
-        <v>1981</v>
-      </c>
-      <c r="C14" s="98">
-        <v>2621</v>
-      </c>
-      <c r="D14" s="98">
-        <v>2115</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="98">
-        <v>5607</v>
-      </c>
-      <c r="H14" s="98">
-        <v>1749</v>
-      </c>
-      <c r="I14" s="98">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="G15" s="94">
+        <v>1283</v>
+      </c>
+      <c r="H15" s="94">
+        <v>6476</v>
+      </c>
+      <c r="I15" s="94">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="98">
-        <v>7768</v>
-      </c>
-      <c r="C15" s="98">
-        <v>9804</v>
-      </c>
-      <c r="D15" s="98">
-        <v>9571</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="96" t="s">
+      <c r="B16" s="94">
+        <v>21</v>
+      </c>
+      <c r="C16" s="94">
+        <v>33</v>
+      </c>
+      <c r="D16" s="94">
+        <v>29</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="94">
+        <v>35</v>
+      </c>
+      <c r="H16" s="94">
+        <v>42</v>
+      </c>
+      <c r="I16" s="94">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="93">
+        <v>7747</v>
+      </c>
+      <c r="C17" s="93">
+        <v>9771</v>
+      </c>
+      <c r="D17" s="93">
+        <v>9542</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="98">
-        <v>1283</v>
-      </c>
-      <c r="H15" s="98">
-        <v>6476</v>
-      </c>
-      <c r="I15" s="98">
-        <v>8985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="98">
-        <v>21</v>
-      </c>
-      <c r="C16" s="98">
-        <v>33</v>
-      </c>
-      <c r="D16" s="98">
-        <v>29</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="98">
-        <v>35</v>
-      </c>
-      <c r="H16" s="98">
-        <v>42</v>
-      </c>
-      <c r="I16" s="98">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
+      <c r="G17" s="93">
+        <v>1248</v>
+      </c>
+      <c r="H17" s="93">
+        <v>6434</v>
+      </c>
+      <c r="I17" s="93">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="97">
-        <v>7747</v>
-      </c>
-      <c r="C17" s="97">
-        <v>9771</v>
-      </c>
-      <c r="D17" s="97">
-        <v>9542</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="96" t="s">
+      <c r="B18" s="95">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="95">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D18" s="95">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="97">
-        <v>1248</v>
-      </c>
-      <c r="H17" s="97">
-        <v>6434</v>
-      </c>
-      <c r="I17" s="97">
-        <v>8920</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="G18" s="95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H18" s="95">
+        <v>1.51</v>
+      </c>
+      <c r="I18" s="95">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="99">
-        <v>1.8</v>
-      </c>
-      <c r="C18" s="99">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D18" s="99">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="99">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H18" s="99">
-        <v>1.51</v>
-      </c>
-      <c r="I18" s="99">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="99">
+      <c r="B19" s="95">
         <v>1.79</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="95">
         <v>2.25</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="95">
         <v>2.19</v>
       </c>
       <c r="E19" s="71">
         <f>B21-B15</f>
         <v>-7740</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H19" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="95">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="94">
+        <v>4295</v>
+      </c>
+      <c r="C20" s="94">
+        <v>4315</v>
+      </c>
+      <c r="D20" s="94">
+        <v>4328</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="99">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H19" s="99">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="99">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
+      <c r="G20" s="94">
+        <v>4272</v>
+      </c>
+      <c r="H20" s="94">
+        <v>4259</v>
+      </c>
+      <c r="I20" s="94">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="98">
-        <v>4295</v>
-      </c>
-      <c r="C20" s="98">
-        <v>4315</v>
-      </c>
-      <c r="D20" s="98">
-        <v>4328</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="96" t="s">
+      <c r="B21" s="94">
+        <v>28</v>
+      </c>
+      <c r="C21" s="94">
+        <v>25</v>
+      </c>
+      <c r="D21" s="94">
+        <v>22</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="98">
-        <v>4272</v>
-      </c>
-      <c r="H20" s="98">
-        <v>4259</v>
-      </c>
-      <c r="I20" s="98">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="G21" s="94">
+        <v>52</v>
+      </c>
+      <c r="H21" s="94">
+        <v>40</v>
+      </c>
+      <c r="I21" s="94">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="98">
-        <v>28</v>
-      </c>
-      <c r="C21" s="98">
-        <v>25</v>
-      </c>
-      <c r="D21" s="98">
-        <v>22</v>
-      </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="96" t="s">
+      <c r="B22" s="94">
+        <v>4323</v>
+      </c>
+      <c r="C22" s="94">
+        <v>4340</v>
+      </c>
+      <c r="D22" s="94">
+        <v>4350</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="G21" s="98">
-        <v>52</v>
-      </c>
-      <c r="H21" s="98">
-        <v>40</v>
-      </c>
-      <c r="I21" s="98">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="98">
-        <v>4323</v>
-      </c>
-      <c r="C22" s="98">
-        <v>4340</v>
-      </c>
-      <c r="D22" s="98">
-        <v>4350</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="98">
+      <c r="G22" s="94">
         <v>4324</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="94">
         <v>4299</v>
       </c>
-      <c r="I22" s="98">
+      <c r="I22" s="94">
         <v>4314</v>
       </c>
     </row>
@@ -5993,956 +5993,956 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="F1" s="92" t="s">
+      <c r="C3" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="D3" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="96" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="93">
+        <v>7768</v>
+      </c>
+      <c r="C4" s="93">
+        <v>9804</v>
+      </c>
+      <c r="D4" s="93">
+        <v>9571</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="93">
+        <v>1283</v>
+      </c>
+      <c r="H4" s="93">
+        <v>6476</v>
+      </c>
+      <c r="I4" s="93">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="94">
+        <v>1536</v>
+      </c>
+      <c r="C5" s="94">
+        <v>1452</v>
+      </c>
+      <c r="D5" s="94">
+        <v>1260</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="94">
+        <v>1260</v>
+      </c>
+      <c r="H5" s="94">
+        <v>1086</v>
+      </c>
+      <c r="I5" s="94">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="B6" s="94">
+        <v>126</v>
+      </c>
+      <c r="C6" s="94">
+        <v>337</v>
+      </c>
+      <c r="D6" s="94">
+        <v>356</v>
+      </c>
+      <c r="F6" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="97">
-        <v>7768</v>
-      </c>
-      <c r="C4" s="97">
-        <v>9804</v>
-      </c>
-      <c r="D4" s="97">
-        <v>9571</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="97">
-        <v>1283</v>
-      </c>
-      <c r="H4" s="97">
-        <v>6476</v>
-      </c>
-      <c r="I4" s="97">
-        <v>8985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="98">
-        <v>1536</v>
-      </c>
-      <c r="C5" s="98">
-        <v>1452</v>
-      </c>
-      <c r="D5" s="98">
-        <v>1260</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="98">
-        <v>1260</v>
-      </c>
-      <c r="H5" s="98">
+      <c r="G6" s="94">
+        <v>219</v>
+      </c>
+      <c r="H6" s="94">
+        <v>225</v>
+      </c>
+      <c r="I6" s="94">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="94">
+        <v>-18</v>
+      </c>
+      <c r="C7" s="94">
+        <v>894</v>
+      </c>
+      <c r="D7" s="94">
+        <v>-122</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="94">
+        <v>-1252</v>
+      </c>
+      <c r="H7" s="94">
+        <v>-413</v>
+      </c>
+      <c r="I7" s="94">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="94">
+        <v>-511</v>
+      </c>
+      <c r="C8" s="94">
+        <v>-615</v>
+      </c>
+      <c r="D8" s="94">
+        <v>-838</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="94">
+        <v>-628</v>
+      </c>
+      <c r="H8" s="94">
+        <v>-457</v>
+      </c>
+      <c r="I8" s="94">
+        <v>-421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="94">
+        <v>-88</v>
+      </c>
+      <c r="C9" s="94">
+        <v>86</v>
+      </c>
+      <c r="D9" s="94">
+        <v>203</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="94">
+        <v>292</v>
+      </c>
+      <c r="H9" s="94">
+        <v>-50</v>
+      </c>
+      <c r="I9" s="94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="94">
+        <v>-914</v>
+      </c>
+      <c r="C10" s="94">
+        <v>-1365</v>
+      </c>
+      <c r="D10" s="94">
+        <v>-129</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="94">
+        <v>1459</v>
+      </c>
+      <c r="H10" s="94">
+        <v>743</v>
+      </c>
+      <c r="I10" s="94">
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="94">
+        <v>556</v>
+      </c>
+      <c r="C11" s="94">
+        <v>506</v>
+      </c>
+      <c r="D11" s="94">
         <v>1086</v>
       </c>
-      <c r="I5" s="98">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="98">
-        <v>126</v>
-      </c>
-      <c r="C6" s="98">
-        <v>337</v>
-      </c>
-      <c r="D6" s="98">
-        <v>356</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="98">
+      <c r="F11" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="94">
+        <v>1218</v>
+      </c>
+      <c r="H11" s="94">
+        <v>558</v>
+      </c>
+      <c r="I11" s="94">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="94">
+        <v>699</v>
+      </c>
+      <c r="C12" s="94">
+        <v>201</v>
+      </c>
+      <c r="D12" s="94">
+        <v>236</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="94">
+        <v>-252</v>
+      </c>
+      <c r="H12" s="94">
+        <v>699</v>
+      </c>
+      <c r="I12" s="94">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="94">
+        <v>690</v>
+      </c>
+      <c r="C13" s="94">
+        <v>1325</v>
+      </c>
+      <c r="D13" s="94">
+        <v>-605</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="94">
+        <v>3442</v>
+      </c>
+      <c r="H13" s="94">
+        <v>-1240</v>
+      </c>
+      <c r="I13" s="94">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="94">
+        <v>9844</v>
+      </c>
+      <c r="C14" s="94">
+        <v>12625</v>
+      </c>
+      <c r="D14" s="94">
+        <v>11018</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="94">
+        <v>7041</v>
+      </c>
+      <c r="H14" s="94">
+        <v>7627</v>
+      </c>
+      <c r="I14" s="94">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="94">
+        <v>-13583</v>
+      </c>
+      <c r="C16" s="94">
+        <v>-6030</v>
+      </c>
+      <c r="D16" s="94">
+        <v>-3751</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="94">
+        <v>-17296</v>
+      </c>
+      <c r="H16" s="94">
+        <v>-7789</v>
+      </c>
+      <c r="I16" s="94">
+        <v>-4704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="94">
+        <v>13835</v>
+      </c>
+      <c r="C17" s="94">
+        <v>7059</v>
+      </c>
+      <c r="D17" s="94">
+        <v>4771</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="94">
+        <v>16694</v>
+      </c>
+      <c r="H17" s="94">
+        <v>14977</v>
+      </c>
+      <c r="I17" s="94">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="94">
+        <v>-1052</v>
+      </c>
+      <c r="C18" s="94">
+        <v>-4766</v>
+      </c>
+      <c r="D18" s="94">
+        <v>-73</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="94">
+        <v>-3809</v>
+      </c>
+      <c r="H18" s="94">
+        <v>-1263</v>
+      </c>
+      <c r="I18" s="94">
+        <v>-5542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="94">
+        <v>189</v>
+      </c>
+      <c r="C19" s="94">
+        <v>2180</v>
+      </c>
+      <c r="D19" s="94">
+        <v>458</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="94">
+        <v>3821</v>
+      </c>
+      <c r="H19" s="94">
+        <v>1362</v>
+      </c>
+      <c r="I19" s="94">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="94">
+        <v>-1177</v>
+      </c>
+      <c r="C20" s="94">
+        <v>-1367</v>
+      </c>
+      <c r="D20" s="94">
+        <v>-1484</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="94">
+        <v>-1750</v>
+      </c>
+      <c r="H20" s="94">
+        <v>-1548</v>
+      </c>
+      <c r="I20" s="94">
+        <v>-2054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="94">
+        <v>189</v>
+      </c>
+      <c r="C21" s="94">
+        <v>108</v>
+      </c>
+      <c r="D21" s="94">
+        <v>75</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="94">
+        <v>108</v>
+      </c>
+      <c r="H21" s="94">
+        <v>248</v>
+      </c>
+      <c r="I21" s="94">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="94">
+        <v>0</v>
+      </c>
+      <c r="C22" s="94">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94">
+        <v>-1465</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="94">
+        <v>-80</v>
+      </c>
+      <c r="H22" s="94">
+        <v>-60</v>
+      </c>
+      <c r="I22" s="94">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="94">
+        <v>122</v>
+      </c>
+      <c r="C23" s="94">
+        <v>51</v>
+      </c>
+      <c r="D23" s="94">
+        <v>706</v>
+      </c>
+      <c r="F23" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="94">
+        <v>-2312</v>
+      </c>
+      <c r="H23" s="94">
+        <v>5927</v>
+      </c>
+      <c r="I23" s="94">
+        <v>-3976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="94">
+        <v>-1477</v>
+      </c>
+      <c r="C24" s="94">
+        <v>-2765</v>
+      </c>
+      <c r="D24" s="94">
+        <v>-763</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="94">
+        <v>29926</v>
+      </c>
+      <c r="H25" s="94">
+        <v>27605</v>
+      </c>
+      <c r="I25" s="94">
+        <v>23009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="94">
+        <v>26934</v>
+      </c>
+      <c r="C26" s="94">
+        <v>13094</v>
+      </c>
+      <c r="D26" s="94">
+        <v>3972</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="94">
+        <v>-28871</v>
+      </c>
+      <c r="H26" s="94">
+        <v>-30600</v>
+      </c>
+      <c r="I26" s="94">
+        <v>-24850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="94">
+        <v>-28796</v>
+      </c>
+      <c r="C27" s="94">
+        <v>-12866</v>
+      </c>
+      <c r="D27" s="94">
+        <v>-4930</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="94">
+        <v>1595</v>
+      </c>
+      <c r="H27" s="94">
+        <v>1476</v>
+      </c>
+      <c r="I27" s="94">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="94">
+        <v>647</v>
+      </c>
+      <c r="C28" s="94">
+        <v>702</v>
+      </c>
+      <c r="D28" s="94">
+        <v>837</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="94">
+        <v>-3682</v>
+      </c>
+      <c r="H28" s="94">
+        <v>-1912</v>
+      </c>
+      <c r="I28" s="94">
+        <v>-1103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="94">
+        <v>-118</v>
+      </c>
+      <c r="C29" s="94">
+        <v>-111</v>
+      </c>
+      <c r="D29" s="94">
+        <v>-1418</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="94">
+        <v>-6320</v>
+      </c>
+      <c r="H29" s="94">
+        <v>-6644</v>
+      </c>
+      <c r="I29" s="94">
+        <v>-6845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="94">
+        <v>-7047</v>
+      </c>
+      <c r="C30" s="94">
+        <v>-7252</v>
+      </c>
+      <c r="D30" s="94">
+        <v>-7616</v>
+      </c>
+      <c r="F30" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="94">
+        <v>-95</v>
+      </c>
+      <c r="H30" s="94">
+        <v>-272</v>
+      </c>
+      <c r="I30" s="94">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="94">
+        <v>310</v>
+      </c>
+      <c r="C31" s="94">
+        <v>-353</v>
+      </c>
+      <c r="D31" s="94">
+        <v>-1095</v>
+      </c>
+      <c r="F31" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="94">
+        <v>-7447</v>
+      </c>
+      <c r="H31" s="94">
+        <v>-10347</v>
+      </c>
+      <c r="I31" s="94">
+        <v>-9004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="94">
+        <v>-8070</v>
+      </c>
+      <c r="C32" s="94">
+        <v>-6786</v>
+      </c>
+      <c r="D32" s="94">
+        <v>-10250</v>
+      </c>
+      <c r="F32" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="94">
+        <v>241</v>
+      </c>
+      <c r="H32" s="94">
+        <v>-262</v>
+      </c>
+      <c r="I32" s="94">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="94">
+        <v>76</v>
+      </c>
+      <c r="C34" s="94">
+        <v>-159</v>
+      </c>
+      <c r="D34" s="94">
+        <v>-205</v>
+      </c>
+      <c r="F34" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="94">
+        <v>-2477</v>
+      </c>
+      <c r="H34" s="94">
+        <v>2945</v>
+      </c>
+      <c r="I34" s="94">
+        <v>-2581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="94">
+        <v>373</v>
+      </c>
+      <c r="C35" s="94">
+        <v>2915</v>
+      </c>
+      <c r="D35" s="94">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="94">
+        <v>8850</v>
+      </c>
+      <c r="H35" s="94">
+        <v>6373</v>
+      </c>
+      <c r="I35" s="94">
+        <v>9318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="94">
+        <v>6737</v>
+      </c>
+      <c r="C36" s="94">
+        <v>7110</v>
+      </c>
+      <c r="D36" s="94">
+        <v>10025</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="94">
+        <v>6373</v>
+      </c>
+      <c r="H36" s="94">
+        <v>9318</v>
+      </c>
+      <c r="I36" s="94">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="94">
+        <v>7110</v>
+      </c>
+      <c r="C37" s="94">
+        <v>10025</v>
+      </c>
+      <c r="D37" s="94">
+        <v>9825</v>
+      </c>
+      <c r="F37" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="98">
-        <v>225</v>
-      </c>
-      <c r="I6" s="98">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="98">
-        <v>-18</v>
-      </c>
-      <c r="C7" s="98">
-        <v>894</v>
-      </c>
-      <c r="D7" s="98">
-        <v>-122</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="98">
-        <v>-1252</v>
-      </c>
-      <c r="H7" s="98">
-        <v>-413</v>
-      </c>
-      <c r="I7" s="98">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="98">
-        <v>-511</v>
-      </c>
-      <c r="C8" s="98">
-        <v>-615</v>
-      </c>
-      <c r="D8" s="98">
-        <v>-838</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="98">
-        <v>-628</v>
-      </c>
-      <c r="H8" s="98">
-        <v>-457</v>
-      </c>
-      <c r="I8" s="98">
-        <v>-421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="98">
-        <v>-88</v>
-      </c>
-      <c r="C9" s="98">
-        <v>86</v>
-      </c>
-      <c r="D9" s="98">
-        <v>203</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="98">
-        <v>292</v>
-      </c>
-      <c r="H9" s="98">
-        <v>-50</v>
-      </c>
-      <c r="I9" s="98">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="98">
-        <v>-914</v>
-      </c>
-      <c r="C10" s="98">
-        <v>-1365</v>
-      </c>
-      <c r="D10" s="98">
-        <v>-129</v>
-      </c>
-      <c r="F10" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="98">
-        <v>1459</v>
-      </c>
-      <c r="H10" s="98">
-        <v>743</v>
-      </c>
-      <c r="I10" s="98">
-        <v>-467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="98">
-        <v>556</v>
-      </c>
-      <c r="C11" s="98">
-        <v>506</v>
-      </c>
-      <c r="D11" s="98">
-        <v>1086</v>
-      </c>
-      <c r="F11" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="98">
-        <v>1218</v>
-      </c>
-      <c r="H11" s="98">
-        <v>558</v>
-      </c>
-      <c r="I11" s="98">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="98">
-        <v>699</v>
-      </c>
-      <c r="C12" s="98">
-        <v>201</v>
-      </c>
-      <c r="D12" s="98">
-        <v>236</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="98">
-        <v>-252</v>
-      </c>
-      <c r="H12" s="98">
-        <v>699</v>
-      </c>
-      <c r="I12" s="98">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="98">
-        <v>690</v>
-      </c>
-      <c r="C13" s="98">
-        <v>1325</v>
-      </c>
-      <c r="D13" s="98">
-        <v>-605</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="98">
-        <v>3442</v>
-      </c>
-      <c r="H13" s="98">
-        <v>-1240</v>
-      </c>
-      <c r="I13" s="98">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="98">
-        <v>9844</v>
-      </c>
-      <c r="C14" s="98">
-        <v>12625</v>
-      </c>
-      <c r="D14" s="98">
-        <v>11018</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="98">
-        <v>7041</v>
-      </c>
-      <c r="H14" s="98">
-        <v>7627</v>
-      </c>
-      <c r="I14" s="98">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="98">
-        <v>-13583</v>
-      </c>
-      <c r="C16" s="98">
-        <v>-6030</v>
-      </c>
-      <c r="D16" s="98">
-        <v>-3751</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="98">
-        <v>-17296</v>
-      </c>
-      <c r="H16" s="98">
-        <v>-7789</v>
-      </c>
-      <c r="I16" s="98">
-        <v>-4704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="98">
-        <v>13835</v>
-      </c>
-      <c r="C17" s="98">
-        <v>7059</v>
-      </c>
-      <c r="D17" s="98">
-        <v>4771</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="98">
-        <v>16694</v>
-      </c>
-      <c r="H17" s="98">
-        <v>14977</v>
-      </c>
-      <c r="I17" s="98">
-        <v>6973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="98">
-        <v>-1052</v>
-      </c>
-      <c r="C18" s="98">
-        <v>-4766</v>
-      </c>
-      <c r="D18" s="98">
-        <v>-73</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="98">
-        <v>-3809</v>
-      </c>
-      <c r="H18" s="98">
-        <v>-1263</v>
-      </c>
-      <c r="I18" s="98">
-        <v>-5542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="98">
+      <c r="G37" s="94">
+        <v>271</v>
+      </c>
+      <c r="H37" s="94">
+        <v>241</v>
+      </c>
+      <c r="I37" s="94">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="98">
-        <v>2180</v>
-      </c>
-      <c r="D19" s="98">
-        <v>458</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="98">
-        <v>3821</v>
-      </c>
-      <c r="H19" s="98">
-        <v>1362</v>
-      </c>
-      <c r="I19" s="98">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="98">
-        <v>-1177</v>
-      </c>
-      <c r="C20" s="98">
-        <v>-1367</v>
-      </c>
-      <c r="D20" s="98">
-        <v>-1484</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="98">
-        <v>-1750</v>
-      </c>
-      <c r="H20" s="98">
-        <v>-1548</v>
-      </c>
-      <c r="I20" s="98">
-        <v>-2054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="98">
-        <v>189</v>
-      </c>
-      <c r="C21" s="98">
-        <v>108</v>
-      </c>
-      <c r="D21" s="98">
-        <v>75</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="98">
-        <v>108</v>
-      </c>
-      <c r="H21" s="98">
-        <v>248</v>
-      </c>
-      <c r="I21" s="98">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="98">
-        <v>0</v>
-      </c>
-      <c r="C22" s="98">
-        <v>0</v>
-      </c>
-      <c r="D22" s="98">
-        <v>-1465</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="98">
-        <v>-80</v>
-      </c>
-      <c r="H22" s="98">
-        <v>-60</v>
-      </c>
-      <c r="I22" s="98">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="98">
-        <v>122</v>
-      </c>
-      <c r="C23" s="98">
-        <v>51</v>
-      </c>
-      <c r="D23" s="98">
-        <v>706</v>
-      </c>
-      <c r="F23" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="98">
-        <v>-2312</v>
-      </c>
-      <c r="H23" s="98">
-        <v>5927</v>
-      </c>
-      <c r="I23" s="98">
-        <v>-3976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="98">
-        <v>-1477</v>
-      </c>
-      <c r="C24" s="98">
-        <v>-2765</v>
-      </c>
-      <c r="D24" s="98">
-        <v>-763</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="98">
-        <v>29926</v>
-      </c>
-      <c r="H25" s="98">
-        <v>27605</v>
-      </c>
-      <c r="I25" s="98">
-        <v>23009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="98">
-        <v>26934</v>
-      </c>
-      <c r="C26" s="98">
-        <v>13094</v>
-      </c>
-      <c r="D26" s="98">
-        <v>3972</v>
-      </c>
-      <c r="F26" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="98">
-        <v>-28871</v>
-      </c>
-      <c r="H26" s="98">
-        <v>-30600</v>
-      </c>
-      <c r="I26" s="98">
-        <v>-24850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="98">
-        <v>-28796</v>
-      </c>
-      <c r="C27" s="98">
-        <v>-12866</v>
-      </c>
-      <c r="D27" s="98">
-        <v>-4930</v>
-      </c>
-      <c r="F27" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="98">
-        <v>1595</v>
-      </c>
-      <c r="H27" s="98">
-        <v>1476</v>
-      </c>
-      <c r="I27" s="98">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="98">
-        <v>647</v>
-      </c>
-      <c r="C28" s="98">
-        <v>702</v>
-      </c>
-      <c r="D28" s="98">
-        <v>837</v>
-      </c>
-      <c r="F28" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="98">
-        <v>-3682</v>
-      </c>
-      <c r="H28" s="98">
-        <v>-1912</v>
-      </c>
-      <c r="I28" s="98">
-        <v>-1103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="98">
-        <v>-118</v>
-      </c>
-      <c r="C29" s="98">
-        <v>-111</v>
-      </c>
-      <c r="D29" s="98">
-        <v>-1418</v>
-      </c>
-      <c r="F29" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="98">
-        <v>-6320</v>
-      </c>
-      <c r="H29" s="98">
-        <v>-6644</v>
-      </c>
-      <c r="I29" s="98">
-        <v>-6845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="98">
-        <v>-7047</v>
-      </c>
-      <c r="C30" s="98">
-        <v>-7252</v>
-      </c>
-      <c r="D30" s="98">
-        <v>-7616</v>
-      </c>
-      <c r="F30" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="98">
-        <v>-95</v>
-      </c>
-      <c r="H30" s="98">
-        <v>-272</v>
-      </c>
-      <c r="I30" s="98">
-        <v>-227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="98">
-        <v>310</v>
-      </c>
-      <c r="C31" s="98">
-        <v>-353</v>
-      </c>
-      <c r="D31" s="98">
-        <v>-1095</v>
-      </c>
-      <c r="F31" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="98">
-        <v>-7447</v>
-      </c>
-      <c r="H31" s="98">
-        <v>-10347</v>
-      </c>
-      <c r="I31" s="98">
-        <v>-9004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="98">
-        <v>-8070</v>
-      </c>
-      <c r="C32" s="98">
-        <v>-6786</v>
-      </c>
-      <c r="D32" s="98">
-        <v>-10250</v>
-      </c>
-      <c r="F32" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="G32" s="98">
-        <v>241</v>
-      </c>
-      <c r="H32" s="98">
-        <v>-262</v>
-      </c>
-      <c r="I32" s="98">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="98">
-        <v>76</v>
-      </c>
-      <c r="C34" s="98">
-        <v>-159</v>
-      </c>
-      <c r="D34" s="98">
-        <v>-205</v>
-      </c>
-      <c r="F34" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="98">
-        <v>-2477</v>
-      </c>
-      <c r="H34" s="98">
-        <v>2945</v>
-      </c>
-      <c r="I34" s="98">
-        <v>-2581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="98">
-        <v>373</v>
-      </c>
-      <c r="C35" s="98">
-        <v>2915</v>
-      </c>
-      <c r="D35" s="98">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="98">
-        <v>8850</v>
-      </c>
-      <c r="H35" s="98">
-        <v>6373</v>
-      </c>
-      <c r="I35" s="98">
-        <v>9318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="98">
-        <v>6737</v>
-      </c>
-      <c r="C36" s="98">
-        <v>7110</v>
-      </c>
-      <c r="D36" s="98">
-        <v>10025</v>
-      </c>
-      <c r="F36" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="G36" s="98">
-        <v>6373</v>
-      </c>
-      <c r="H36" s="98">
-        <v>9318</v>
-      </c>
-      <c r="I36" s="98">
-        <v>6737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="98">
-        <v>7110</v>
-      </c>
-      <c r="C37" s="98">
-        <v>10025</v>
-      </c>
-      <c r="D37" s="98">
-        <v>9825</v>
-      </c>
-      <c r="F37" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="98">
-        <v>271</v>
-      </c>
-      <c r="H37" s="98">
-        <v>241</v>
-      </c>
-      <c r="I37" s="98">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="B38" s="94">
+        <v>315</v>
+      </c>
+      <c r="C38" s="94">
+        <v>341</v>
+      </c>
+      <c r="D38" s="94">
+        <v>306</v>
+      </c>
+      <c r="F38" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="98">
-        <v>315</v>
-      </c>
-      <c r="C38" s="98">
-        <v>341</v>
-      </c>
-      <c r="D38" s="98">
-        <v>306</v>
-      </c>
-      <c r="F38" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="97">
+      <c r="G38" s="93">
         <v>6102</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="93">
         <v>9077</v>
       </c>
-      <c r="I38" s="97">
+      <c r="I38" s="93">
         <v>6480</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="97">
+      <c r="A39" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="93">
         <v>6795</v>
       </c>
-      <c r="C39" s="97">
+      <c r="C39" s="93">
         <v>9684</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="93">
         <v>9519</v>
       </c>
       <c r="F39" t="s">
